--- a/data/trans_dic/P36$cafe-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8803579418774778</v>
+        <v>0.8767808357212333</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8676738498744251</v>
+        <v>0.8669638739604515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9138785432558448</v>
+        <v>0.9117974866407255</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8723582396791134</v>
+        <v>0.8724702552899812</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9092647964649108</v>
+        <v>0.9085755663238705</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9042519928437682</v>
+        <v>0.9035783855145881</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8855783744662276</v>
+        <v>0.8837516479881646</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8949160610877459</v>
+        <v>0.891907847718131</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9167230237711719</v>
+        <v>0.9173430766775532</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9335421507428617</v>
+        <v>0.9320590762004474</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9293287805227078</v>
+        <v>0.9316508736258734</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.960432615728814</v>
+        <v>0.9606398231861754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9366437178185808</v>
+        <v>0.9360878840450784</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9641791295453819</v>
+        <v>0.9654809363370803</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.957539451742109</v>
+        <v>0.9571518100893411</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9273787063920598</v>
+        <v>0.9266564810766933</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9378300304330098</v>
+        <v>0.9378029231118972</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9514952463494325</v>
+        <v>0.953926407959204</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8500381512753653</v>
+        <v>0.8517604082521335</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9262793382722712</v>
+        <v>0.9266478736002133</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.911538397880689</v>
+        <v>0.9106319155169134</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8636268654359845</v>
+        <v>0.8586389411594488</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9242384131449708</v>
+        <v>0.9249113006296377</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9260967291882906</v>
+        <v>0.9211656600559298</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8680925114314509</v>
+        <v>0.8684227174537165</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9346355936656749</v>
+        <v>0.9359988141353254</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9250382757585095</v>
+        <v>0.9258300500558636</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9226259690972076</v>
+        <v>0.9212339446695201</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9744499921060917</v>
+        <v>0.9748010926608511</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9613837899571698</v>
+        <v>0.9627276705128129</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.925310782169103</v>
+        <v>0.9234586618776953</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9742153671423798</v>
+        <v>0.9744481204477392</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9709334409699889</v>
+        <v>0.9691740181966987</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9127125505814482</v>
+        <v>0.9163301123314784</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9680923370269644</v>
+        <v>0.9690358406145186</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9591123775931348</v>
+        <v>0.9603294688001405</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8798281135639825</v>
+        <v>0.8793409045713523</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9011342153115222</v>
+        <v>0.9004199802085756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8798856258351561</v>
+        <v>0.8808307903489155</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.833068418052858</v>
+        <v>0.833919374488196</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8884942915515102</v>
+        <v>0.8859330680995463</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8950636588762729</v>
+        <v>0.8957314394328574</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8794511825131263</v>
+        <v>0.8789952209616392</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9060758625491625</v>
+        <v>0.9030943692325414</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8894635592968489</v>
+        <v>0.8920868557084253</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9310842421015958</v>
+        <v>0.9307115272233981</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9440938854190114</v>
+        <v>0.943306641691928</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9305922837955092</v>
+        <v>0.9316078889906618</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9307464712856343</v>
+        <v>0.9347573394488549</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9548432970632492</v>
+        <v>0.9540809020872132</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9703416964976667</v>
+        <v>0.9694914187443464</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9258856663346176</v>
+        <v>0.9251547214807937</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9405930130599923</v>
+        <v>0.9395393329379753</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9357919170976857</v>
+        <v>0.9358523879453488</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9124064340008811</v>
+        <v>0.9121944070132301</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8929012217066834</v>
+        <v>0.8917897444351128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8943316534728522</v>
+        <v>0.8922229308278914</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8799741624420612</v>
+        <v>0.8806390124258798</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8967315889261065</v>
+        <v>0.8947257497017914</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9037145851478174</v>
+        <v>0.9050423918862549</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9049740810532166</v>
+        <v>0.9059250647219962</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9011186509158448</v>
+        <v>0.898615023985342</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9034712668999101</v>
+        <v>0.9041017087285569</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9401115799828834</v>
+        <v>0.9398510864925719</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9288563276911552</v>
+        <v>0.9266588105249607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9271477618960309</v>
+        <v>0.9273273947466227</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9268287046503987</v>
+        <v>0.9254954059355679</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9362312123649319</v>
+        <v>0.937545803687727</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9408166560115242</v>
+        <v>0.9444466398081067</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9314193030161219</v>
+        <v>0.9309436201960357</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9264462727153753</v>
+        <v>0.9270379382730718</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9283577064413426</v>
+        <v>0.9289539227135997</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8679314380373336</v>
+        <v>0.8706029610713195</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8896330127962579</v>
+        <v>0.8936917573248435</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8642654101186785</v>
+        <v>0.8630811259405973</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9185569795280698</v>
+        <v>0.917475214526309</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9377688799981537</v>
+        <v>0.9383511978267156</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9227811068971805</v>
+        <v>0.9202589105882872</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9093370743511009</v>
+        <v>0.9086377840831588</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9237882847588176</v>
+        <v>0.926769686383327</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9030973388745586</v>
+        <v>0.9024556346177504</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9349227438004001</v>
+        <v>0.933514602431767</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9408781226799574</v>
+        <v>0.9418353032902799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9152240047326957</v>
+        <v>0.9131195990607071</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9597172416574274</v>
+        <v>0.9580683354848185</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9672923599138127</v>
+        <v>0.9696845268829374</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9581859716505291</v>
+        <v>0.9573618436257956</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9433758491938019</v>
+        <v>0.9448500739354039</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9520767825693562</v>
+        <v>0.9517579320374038</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9322830323055874</v>
+        <v>0.9313755677475978</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8915267524424524</v>
+        <v>0.892170138015181</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8259245305414935</v>
+        <v>0.8239395776386955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7918788073165655</v>
+        <v>0.7933429842924231</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9051920317329106</v>
+        <v>0.9048976239840671</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9141848886690254</v>
+        <v>0.9146784183274275</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9222532876311361</v>
+        <v>0.9217560667516869</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9075846621717093</v>
+        <v>0.9089722793489057</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.902024768203289</v>
+        <v>0.9036442357123771</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9005151525276274</v>
+        <v>0.8995976068180984</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9518830853818576</v>
+        <v>0.9512954997014128</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9053805989726388</v>
+        <v>0.906765594700311</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8816037469675959</v>
+        <v>0.8863688661249934</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9351577110989626</v>
+        <v>0.9364198036563097</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.945508970475887</v>
+        <v>0.9464035126978269</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9512689435082751</v>
+        <v>0.9498994529721417</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9344107471315598</v>
+        <v>0.9346705653534444</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9334069564084813</v>
+        <v>0.9314963761929178</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9309149036513572</v>
+        <v>0.9314111785298577</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9045904876098668</v>
+        <v>0.9038394845789317</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9046994210718715</v>
+        <v>0.9049593048570008</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8976778396874748</v>
+        <v>0.8971227102626079</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9063643714857569</v>
+        <v>0.9062466337116968</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.927235204554268</v>
+        <v>0.9273812486753769</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9277705663508349</v>
+        <v>0.9278238210726639</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9079447418338331</v>
+        <v>0.9080527899556634</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9189257235188959</v>
+        <v>0.919386189403429</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9155915978207936</v>
+        <v>0.9154409120902068</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.92448909687971</v>
+        <v>0.9241563099778466</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9247998116029658</v>
+        <v>0.9249676763047184</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9179951683355938</v>
+        <v>0.9185339083488009</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9255926083589358</v>
+        <v>0.9252831876246868</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9436648793267614</v>
+        <v>0.9441107507580614</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9442169935422976</v>
+        <v>0.944530007323646</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9216394282560588</v>
+        <v>0.9223193982520711</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9320821547817958</v>
+        <v>0.9324675074586358</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9293046158870336</v>
+        <v>0.9288052181366898</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>416302</v>
+        <v>414610</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>379357</v>
+        <v>379046</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>392138</v>
+        <v>391245</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>267535</v>
+        <v>267569</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>284866</v>
+        <v>284650</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>313825</v>
+        <v>313591</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>690361</v>
+        <v>688937</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>671638</v>
+        <v>669380</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>711512</v>
+        <v>711993</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>441452</v>
+        <v>440750</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>406313</v>
+        <v>407328</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>412114</v>
+        <v>412203</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>287250</v>
+        <v>287079</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>302071</v>
+        <v>302478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>332319</v>
+        <v>332184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>722946</v>
+        <v>722383</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>703845</v>
+        <v>703825</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>738500</v>
+        <v>740387</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>310403</v>
+        <v>311032</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>386045</v>
+        <v>386198</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>343857</v>
+        <v>343515</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>320226</v>
+        <v>318376</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>312403</v>
+        <v>312630</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>343731</v>
+        <v>341901</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>638878</v>
+        <v>639121</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>705444</v>
+        <v>706473</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>692288</v>
+        <v>692880</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>336910</v>
+        <v>336401</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>406121</v>
+        <v>406267</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>362660</v>
+        <v>363167</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>343098</v>
+        <v>342411</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>329296</v>
+        <v>329374</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>360373</v>
+        <v>359720</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>671716</v>
+        <v>674379</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>730697</v>
+        <v>731409</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>717788</v>
+        <v>718699</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>475435</v>
+        <v>475172</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>565499</v>
+        <v>565050</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>458254</v>
+        <v>458746</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>139774</v>
+        <v>139917</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>231123</v>
+        <v>230457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>148691</v>
+        <v>148802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>622788</v>
+        <v>622465</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>804296</v>
+        <v>801650</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>611003</v>
+        <v>612805</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>503133</v>
+        <v>502931</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>592458</v>
+        <v>591964</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>484663</v>
+        <v>485192</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>156163</v>
+        <v>156835</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>248382</v>
+        <v>248184</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>161196</v>
+        <v>161055</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>655671</v>
+        <v>655153</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>834936</v>
+        <v>834001</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>642827</v>
+        <v>642869</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1128000</v>
+        <v>1127738</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1033913</v>
+        <v>1032626</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1027189</v>
+        <v>1024767</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>627694</v>
+        <v>628169</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>685700</v>
+        <v>684166</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>746356</v>
+        <v>747453</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1764338</v>
+        <v>1766192</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1732483</v>
+        <v>1727669</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1783842</v>
+        <v>1785086</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1162251</v>
+        <v>1161929</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1075546</v>
+        <v>1073001</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1064880</v>
+        <v>1065087</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>661116</v>
+        <v>660165</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>715904</v>
+        <v>716909</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>776998</v>
+        <v>779996</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1815896</v>
+        <v>1814969</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1781177</v>
+        <v>1782315</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1832978</v>
+        <v>1834155</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>304258</v>
+        <v>305194</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>453428</v>
+        <v>455497</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>534912</v>
+        <v>534179</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>520617</v>
+        <v>520004</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>711346</v>
+        <v>711787</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>681238</v>
+        <v>679376</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>834164</v>
+        <v>833523</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1171577</v>
+        <v>1175358</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1225652</v>
+        <v>1224781</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>327742</v>
+        <v>327248</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>479547</v>
+        <v>480035</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>566451</v>
+        <v>565149</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>543946</v>
+        <v>543011</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>733741</v>
+        <v>735555</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>707375</v>
+        <v>706767</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>865389</v>
+        <v>866741</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1207453</v>
+        <v>1207049</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1265262</v>
+        <v>1264030</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>265854</v>
+        <v>266046</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>220424</v>
+        <v>219895</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>227384</v>
+        <v>227804</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1130368</v>
+        <v>1130000</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1014152</v>
+        <v>1014699</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>995927</v>
+        <v>995391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1403997</v>
+        <v>1406144</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1241396</v>
+        <v>1243625</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1231031</v>
+        <v>1229777</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>283852</v>
+        <v>283677</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>241630</v>
+        <v>241999</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>253148</v>
+        <v>254516</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1167788</v>
+        <v>1169364</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1048901</v>
+        <v>1049894</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1027261</v>
+        <v>1025782</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1445496</v>
+        <v>1445898</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1284585</v>
+        <v>1281956</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1272589</v>
+        <v>1273267</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2952098</v>
+        <v>2949647</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3090460</v>
+        <v>3091348</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3035723</v>
+        <v>3033846</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3058165</v>
+        <v>3057768</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3286123</v>
+        <v>3286641</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3273494</v>
+        <v>3273682</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6026541</v>
+        <v>6027259</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>6395732</v>
+        <v>6398937</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>6326825</v>
+        <v>6325784</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3017036</v>
+        <v>3015950</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3159124</v>
+        <v>3159697</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3104431</v>
+        <v>3106253</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3123043</v>
+        <v>3121999</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>3344350</v>
+        <v>3345930</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3331522</v>
+        <v>3332627</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>6117441</v>
+        <v>6121954</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>6487301</v>
+        <v>6489983</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>6421583</v>
+        <v>6418132</v>
       </c>
     </row>
     <row r="32">
